--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F39FA166-41DD-42F3-A861-3B5FD61AB0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37E498-B9A0-4245-A48A-5657CD9A8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BAEC4B6-47F1-40AA-94F1-FE9E1E0AA35F}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Тариф</t>
   </si>
   <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
     <t>Срок оплаты, день</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Просрочка</t>
   </si>
   <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
     <t>Абделазиз</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>Общая сумма графы "Итого", руб</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBD13C5-E95C-4A1B-BD22-6B1BB335EE2A}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,25 +582,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -606,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -649,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -693,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="7">C4-0.5</f>
@@ -737,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="7"/>
@@ -781,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="7"/>
@@ -825,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="7"/>
@@ -869,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="7"/>
@@ -913,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="7"/>
@@ -957,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="7"/>
@@ -1001,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="7"/>
@@ -1045,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="7"/>
@@ -1089,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="7"/>
@@ -1133,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="7"/>
@@ -1177,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="7"/>
@@ -1221,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="7"/>
@@ -1265,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="7"/>
@@ -1309,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="7"/>
@@ -1353,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="7"/>
@@ -1397,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="7"/>
@@ -1441,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="7"/>
@@ -1485,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="7"/>
@@ -1529,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="7"/>
@@ -1573,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="7"/>
@@ -1617,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="7"/>
@@ -1661,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="7"/>
@@ -1705,7 +1707,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="7"/>
@@ -1749,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="7"/>
@@ -1793,7 +1795,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="7"/>
@@ -1837,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="7"/>
@@ -1881,7 +1883,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="7"/>
@@ -1925,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="7"/>
@@ -1969,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="7"/>
@@ -2013,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="7"/>
@@ -2057,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="7"/>
@@ -2101,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="7"/>
@@ -2145,7 +2147,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="7"/>
@@ -2185,7 +2187,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2194,7 +2196,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2212,7 +2214,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арина\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB20EDE-A784-44AA-B0B9-A411C192B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1038C5-B9AD-4D17-A8DE-4E0F7DDB26E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -641,7 +641,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>41</v>
@@ -2226,7 +2226,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="4"/>
@@ -2335,7 +2335,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1038C5-B9AD-4D17-A8DE-4E0F7DDB26E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61371D93-5772-4470-A724-C84D2835C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -641,7 +641,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>41</v>
@@ -2098,7 +2098,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="3">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E35" s="3">
@@ -2143,7 +2143,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E36" s="3">
@@ -2181,14 +2181,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E37" s="3">
@@ -2226,14 +2226,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E38" s="3">
@@ -2335,7 +2335,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61371D93-5772-4470-A724-C84D2835C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00E03A-BB6B-428C-80E5-680FF16462F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C812E225-0302-43BC-BF7F-7687DCBD0107}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7733E-DEB9-4F9D-8946-67364D2E8DA5}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -719,7 +719,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="8">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="8">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -2284,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="2">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>31480</v>
       </c>
       <c r="D40" s="1"/>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -162,16 +159,19 @@
     <t>Итого, руб</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”, руб</t>
-  </si>
-  <si>
     <t>Cредняя площадь, кв. м</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб</t>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +199,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF282C34"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -237,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,16 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -545,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -610,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -623,10 +613,10 @@
         <f>C3*D3</f>
         <v>924.00000000000011</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="2">
@@ -640,17 +630,18 @@
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>924.00000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -664,10 +655,12 @@
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>917.40000000000009</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -675,26 +668,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>917.40000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -705,10 +700,12 @@
         <f t="shared" si="1"/>
         <v>910.80000000000007</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -716,26 +713,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>910.80000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -746,10 +745,12 @@
         <f t="shared" si="1"/>
         <v>904.2</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -757,26 +758,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>904.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -787,10 +790,12 @@
         <f t="shared" si="1"/>
         <v>897.6</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -798,26 +803,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>897.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -828,10 +835,12 @@
         <f t="shared" si="1"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -839,26 +848,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>891.00000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -869,10 +880,12 @@
         <f t="shared" si="1"/>
         <v>884.40000000000009</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -880,26 +893,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>884.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -910,10 +925,12 @@
         <f t="shared" si="1"/>
         <v>877.80000000000007</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -921,26 +938,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>877.80000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -951,10 +970,12 @@
         <f t="shared" si="1"/>
         <v>435.6</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -962,40 +983,44 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>435.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D38" si="6">$A$1*1.1/2</f>
+        <f t="shared" ref="D12:D38" si="10">$A$1*1.1/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>432.3</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1003,40 +1028,44 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>442.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>429.00000000000006</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1044,40 +1073,44 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>449.00000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>425.70000000000005</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1085,40 +1118,44 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>455.70000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>422.40000000000003</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1126,40 +1163,44 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>462.40000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>419.1</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1167,40 +1208,44 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>469.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>415.8</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1208,40 +1253,44 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>475.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>412.50000000000006</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1249,40 +1298,44 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>482.50000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>409.20000000000005</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1290,40 +1343,44 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>489.20000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>405.90000000000003</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1331,40 +1388,44 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>495.90000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>402.6</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1372,40 +1433,44 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>502.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>399.3</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1413,40 +1478,44 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>509.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>396.00000000000006</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1454,40 +1523,44 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>392.70000000000005</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1495,40 +1568,44 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>522.70000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>389.40000000000003</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1536,40 +1613,44 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>529.40000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>386.1</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1577,40 +1658,44 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>536.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>382.8</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1618,40 +1703,44 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>542.79999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>379.50000000000006</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1659,40 +1748,44 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>549.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <f>C28-0.5</f>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>376.20000000000005</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1700,26 +1793,28 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>556.20000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1730,10 +1825,12 @@
         <f t="shared" si="1"/>
         <v>372.90000000000003</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1741,40 +1838,44 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>562.90000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1782,40 +1883,44 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>569.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>366.3</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1823,40 +1928,44 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>576.29999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>363.00000000000006</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -1864,40 +1973,44 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>359.70000000000005</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -1905,40 +2018,44 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>589.70000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>356.40000000000003</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -1946,40 +2063,44 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>596.40000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>353.1</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -1987,40 +2108,44 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>603.1</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>349.8</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2028,40 +2153,44 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>609.79999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>346.5</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2069,29 +2198,30 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>616.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
         <v>21936.600000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>48</v>
+      <c r="B41" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2099,8 +2229,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>49</v>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2108,7 +2238,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -30,15 +30,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Площадь, кв. м</t>
-  </si>
-  <si>
-    <t>Тариф, руб</t>
-  </si>
-  <si>
-    <t>Сумма, руб./кв.м</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -153,25 +144,37 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
-    <t>Cредняя площадь, кв. м</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Общая сумма, руб</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб</t>
+    <t>дата начала года</t>
+  </si>
+  <si>
+    <t>Тариф, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Cредняя площадь, кв.м.</t>
   </si>
 </sst>
 </file>
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,22 +562,25 @@
       <c r="A1" s="2">
         <v>12</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -583,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -600,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -641,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -686,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -731,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="6"/>
@@ -776,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="6"/>
@@ -821,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="6"/>
@@ -866,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="6"/>
@@ -911,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="6"/>
@@ -956,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="6"/>
@@ -1001,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="6"/>
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="6"/>
@@ -1091,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="6"/>
@@ -1136,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
@@ -1181,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
@@ -1226,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="6"/>
@@ -1271,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
@@ -1316,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="6"/>
@@ -1361,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="6"/>
@@ -1406,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="6"/>
@@ -1451,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="6"/>
@@ -1496,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="6"/>
@@ -1541,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="6"/>
@@ -1586,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
@@ -1631,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
@@ -1676,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -1721,7 +1727,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
@@ -1766,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
         <f>C28-0.5</f>
@@ -1811,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
@@ -1856,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -1901,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
@@ -1946,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
@@ -1991,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -2036,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
@@ -2081,7 +2087,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
@@ -2126,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -2171,7 +2177,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -141,21 +141,12 @@
     <t xml:space="preserve"> Куропаткин 16</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>дата начала года</t>
-  </si>
-  <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -171,10 +162,16 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Cредняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +549,7 @@
     <col min="6" max="6" width="21.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="14.109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="3"/>
@@ -562,25 +559,23 @@
       <c r="A1" s="2">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -592,13 +587,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2218,16 +2213,16 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7">
-        <f>SUM(K3:K38)</f>
-        <v>21936.600000000002</v>
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+        <v>21936</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2236,7 +2231,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2245,7 +2240,7 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +544,7 @@
     <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E3" s="2">
@@ -649,11 +649,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>917.40000000000009</v>
       </c>
       <c r="F4" s="4">
@@ -665,7 +665,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H37" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H37" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -673,32 +673,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>917.40000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D33" si="6">D4</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>910.80000000000007</v>
       </c>
       <c r="F5" s="4">
@@ -710,7 +710,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -718,32 +718,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>910.80000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>904.2</v>
       </c>
       <c r="F6" s="4">
@@ -755,7 +755,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -763,32 +763,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>904.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>897.6</v>
       </c>
       <c r="F7" s="4">
@@ -800,7 +800,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
@@ -808,32 +808,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>897.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>891.00000000000011</v>
       </c>
       <c r="F8" s="4">
@@ -845,7 +845,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -853,32 +853,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>891.00000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>884.40000000000009</v>
       </c>
       <c r="F9" s="4">
@@ -890,7 +890,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -898,32 +898,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>884.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>877.80000000000007</v>
       </c>
       <c r="F10" s="4">
@@ -935,7 +935,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
@@ -943,33 +943,33 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>877.80000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>$A$1*1.1/2</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>435.6</v>
+        <f t="shared" si="0"/>
+        <v>871.2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="7"/>
@@ -980,7 +980,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
@@ -988,33 +988,33 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
-        <v>435.6</v>
+        <f t="shared" si="3"/>
+        <v>871.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D38" si="10">$A$1*1.1/2</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>432.3</v>
+        <f t="shared" si="0"/>
+        <v>864.6</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="7"/>
@@ -1025,7 +1025,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1033,33 +1033,33 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
-        <v>442.3</v>
+        <f t="shared" si="3"/>
+        <v>874.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>429.00000000000006</v>
+        <f t="shared" si="0"/>
+        <v>858.00000000000011</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="7"/>
@@ -1070,7 +1070,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
@@ -1078,33 +1078,33 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
-        <v>449.00000000000006</v>
+        <f t="shared" si="3"/>
+        <v>878.00000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>425.70000000000005</v>
+        <f t="shared" si="0"/>
+        <v>851.40000000000009</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="7"/>
@@ -1115,7 +1115,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
@@ -1123,33 +1123,33 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
-        <v>455.70000000000005</v>
+        <f t="shared" si="3"/>
+        <v>881.40000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>422.40000000000003</v>
+        <f t="shared" si="0"/>
+        <v>844.80000000000007</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="7"/>
@@ -1160,7 +1160,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
@@ -1168,33 +1168,33 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
-        <v>462.40000000000003</v>
+        <f t="shared" si="3"/>
+        <v>884.80000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>419.1</v>
+        <f t="shared" si="0"/>
+        <v>838.2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="7"/>
@@ -1205,7 +1205,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
@@ -1213,33 +1213,33 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
-        <v>469.1</v>
+        <f t="shared" si="3"/>
+        <v>888.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>415.8</v>
+        <f t="shared" si="0"/>
+        <v>831.6</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="7"/>
@@ -1250,7 +1250,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
@@ -1258,33 +1258,33 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
-        <v>475.8</v>
+        <f t="shared" si="3"/>
+        <v>891.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>412.50000000000006</v>
+        <f t="shared" si="0"/>
+        <v>825.00000000000011</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="7"/>
@@ -1295,7 +1295,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
@@ -1303,33 +1303,33 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
-        <v>482.50000000000006</v>
+        <f t="shared" si="3"/>
+        <v>895.00000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>409.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>818.40000000000009</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="7"/>
@@ -1340,7 +1340,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
@@ -1348,33 +1348,33 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
-        <v>489.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>898.40000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>405.90000000000003</v>
+        <f t="shared" si="0"/>
+        <v>811.80000000000007</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="7"/>
@@ -1385,7 +1385,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
@@ -1393,33 +1393,33 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="4"/>
-        <v>495.90000000000003</v>
+        <f t="shared" si="3"/>
+        <v>901.80000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>402.6</v>
+        <f t="shared" si="0"/>
+        <v>805.2</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="7"/>
@@ -1430,7 +1430,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
@@ -1438,33 +1438,33 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
-        <v>502.6</v>
+        <f t="shared" si="3"/>
+        <v>905.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>399.3</v>
+        <f t="shared" si="0"/>
+        <v>798.6</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="7"/>
@@ -1475,7 +1475,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
@@ -1483,33 +1483,33 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
-        <v>509.3</v>
+        <f t="shared" si="3"/>
+        <v>908.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>396.00000000000006</v>
+        <f t="shared" si="0"/>
+        <v>792.00000000000011</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="7"/>
@@ -1520,7 +1520,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
@@ -1528,33 +1528,33 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="4"/>
-        <v>516</v>
+        <f t="shared" si="3"/>
+        <v>912.00000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>392.70000000000005</v>
+        <f t="shared" si="0"/>
+        <v>785.40000000000009</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="7"/>
@@ -1565,7 +1565,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
@@ -1573,33 +1573,33 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="4"/>
-        <v>522.70000000000005</v>
+        <f t="shared" si="3"/>
+        <v>915.40000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>389.40000000000003</v>
+        <f t="shared" si="0"/>
+        <v>778.80000000000007</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="7"/>
@@ -1610,7 +1610,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
@@ -1618,33 +1618,33 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
-        <v>529.40000000000009</v>
+        <f t="shared" si="3"/>
+        <v>918.80000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>386.1</v>
+        <f t="shared" si="0"/>
+        <v>772.2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="7"/>
@@ -1655,7 +1655,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
@@ -1663,33 +1663,33 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="4"/>
-        <v>536.1</v>
+        <f t="shared" si="3"/>
+        <v>922.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>382.8</v>
+        <f t="shared" si="0"/>
+        <v>765.6</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="7"/>
@@ -1700,7 +1700,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
@@ -1708,33 +1708,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="4"/>
-        <v>542.79999999999995</v>
+        <f t="shared" si="3"/>
+        <v>925.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>379.50000000000006</v>
+        <f t="shared" si="0"/>
+        <v>759.00000000000011</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="7"/>
@@ -1745,7 +1745,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
@@ -1753,17 +1753,17 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
-        <v>549.5</v>
+        <f t="shared" si="3"/>
+        <v>929.00000000000011</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1774,12 +1774,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>376.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>752.40000000000009</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="7"/>
@@ -1790,7 +1790,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
@@ -1798,33 +1798,33 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="4"/>
-        <v>556.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>932.40000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f>$A$1*1.1/2</f>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>372.90000000000003</v>
+        <f t="shared" si="0"/>
+        <v>745.80000000000007</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="7"/>
@@ -1835,7 +1835,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
@@ -1843,33 +1843,33 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="4"/>
-        <v>562.90000000000009</v>
+        <f t="shared" si="3"/>
+        <v>935.80000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>369.6</v>
+        <f t="shared" si="0"/>
+        <v>739.2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="7"/>
@@ -1880,7 +1880,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
@@ -1888,33 +1888,33 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
-        <v>569.6</v>
+        <f t="shared" si="3"/>
+        <v>939.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>366.3</v>
+        <f t="shared" si="0"/>
+        <v>732.6</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="7"/>
@@ -1925,7 +1925,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
@@ -1933,33 +1933,33 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
-        <v>576.29999999999995</v>
+        <f t="shared" si="3"/>
+        <v>942.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>363.00000000000006</v>
+        <f t="shared" si="0"/>
+        <v>726.00000000000011</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="7"/>
@@ -1970,7 +1970,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
@@ -1978,33 +1978,33 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="4"/>
-        <v>583</v>
+        <f t="shared" si="3"/>
+        <v>946.00000000000011</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6000000000000005</v>
+        <f>D33</f>
+        <v>13.200000000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>359.70000000000005</v>
+        <f t="shared" si="0"/>
+        <v>719.40000000000009</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="7"/>
@@ -2015,7 +2015,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
@@ -2023,32 +2023,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
-        <v>589.70000000000005</v>
+        <f t="shared" si="3"/>
+        <v>949.40000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>356.40000000000003</v>
       </c>
       <c r="F35" s="4">
@@ -2060,7 +2060,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
@@ -2068,32 +2068,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>596.40000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>353.1</v>
       </c>
       <c r="F36" s="4">
@@ -2105,7 +2105,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
@@ -2113,24 +2113,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>603.1</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2138,7 +2138,7 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
       <c r="F37" s="4">
@@ -2150,7 +2150,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
@@ -2158,24 +2158,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>609.79999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2183,7 +2183,7 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
       <c r="F38" s="4">
@@ -2203,11 +2203,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>616.5</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C40" s="7">
         <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
-        <v>21936</v>
+        <v>31480</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -96,51 +96,6 @@
     <t xml:space="preserve"> Куропаткин 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 16</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -172,6 +127,51 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Куропаткин 16</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,16 +566,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -587,13 +587,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1587,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1677,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1722,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1767,7 +1767,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <f>C28-0.5</f>
@@ -1812,7 +1812,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1857,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1947,7 +1947,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1992,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -2037,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -2082,7 +2082,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -2127,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2172,7 +2172,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7">
         <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -93,9 +93,6 @@
     <t>Коковкина</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 1</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -172,15 +169,15 @@
   </si>
   <si>
     <t>Куропаткин 16</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,13 +241,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -587,13 +584,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -621,7 +618,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -631,7 +628,7 @@
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <f>E3+J3</f>
         <v>924.00000000000011</v>
       </c>
@@ -657,7 +654,7 @@
         <v>917.40000000000009</v>
       </c>
       <c r="F4" s="4">
-        <f>$F$3</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
@@ -665,18 +662,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H37" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f>$I$3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>917.40000000000009</v>
       </c>
@@ -702,7 +699,7 @@
         <v>910.80000000000007</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -714,14 +711,14 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <f t="shared" si="3"/>
         <v>910.80000000000007</v>
       </c>
@@ -766,7 +763,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <f t="shared" si="3"/>
         <v>904.2</v>
       </c>
@@ -811,7 +808,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <f t="shared" si="3"/>
         <v>897.6</v>
       </c>
@@ -856,7 +853,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <f t="shared" si="3"/>
         <v>891.00000000000011</v>
       </c>
@@ -901,7 +898,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <f t="shared" si="3"/>
         <v>884.40000000000009</v>
       </c>
@@ -946,7 +943,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <f t="shared" si="3"/>
         <v>877.80000000000007</v>
       </c>
@@ -991,7 +988,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>871.2</v>
       </c>
@@ -1036,7 +1033,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <f t="shared" si="3"/>
         <v>874.6</v>
       </c>
@@ -1081,7 +1078,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <f t="shared" si="3"/>
         <v>878.00000000000011</v>
       </c>
@@ -1126,7 +1123,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <f t="shared" si="3"/>
         <v>881.40000000000009</v>
       </c>
@@ -1171,7 +1168,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <f t="shared" si="3"/>
         <v>884.80000000000007</v>
       </c>
@@ -1216,7 +1213,7 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <f t="shared" si="3"/>
         <v>888.2</v>
       </c>
@@ -1261,7 +1258,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <f t="shared" si="3"/>
         <v>891.6</v>
       </c>
@@ -1306,7 +1303,7 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="7">
         <f t="shared" si="3"/>
         <v>895.00000000000011</v>
       </c>
@@ -1351,7 +1348,7 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="7">
         <f t="shared" si="3"/>
         <v>898.40000000000009</v>
       </c>
@@ -1396,7 +1393,7 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="7">
         <f t="shared" si="3"/>
         <v>901.80000000000007</v>
       </c>
@@ -1441,7 +1438,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="7">
         <f t="shared" si="3"/>
         <v>905.2</v>
       </c>
@@ -1486,7 +1483,7 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <f t="shared" si="3"/>
         <v>908.6</v>
       </c>
@@ -1497,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1531,7 +1528,7 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="7">
         <f t="shared" si="3"/>
         <v>912.00000000000011</v>
       </c>
@@ -1542,7 +1539,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1576,7 +1573,7 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="7">
         <f t="shared" si="3"/>
         <v>915.40000000000009</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1621,7 +1618,7 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="7">
         <f t="shared" si="3"/>
         <v>918.80000000000007</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1666,7 +1663,7 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="7">
         <f t="shared" si="3"/>
         <v>922.2</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1711,7 +1708,7 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="7">
         <f t="shared" si="3"/>
         <v>925.6</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1756,7 +1753,7 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="7">
         <f t="shared" si="3"/>
         <v>929.00000000000011</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <f>C28-0.5</f>
@@ -1801,7 +1798,7 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="7">
         <f t="shared" si="3"/>
         <v>932.40000000000009</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1846,7 +1843,7 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <f t="shared" si="3"/>
         <v>935.80000000000007</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1891,7 +1888,7 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="7">
         <f t="shared" si="3"/>
         <v>939.2</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -1936,7 +1933,7 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="7">
         <f t="shared" si="3"/>
         <v>942.6</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -1981,7 +1978,7 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="7">
         <f t="shared" si="3"/>
         <v>946.00000000000011</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -2026,7 +2023,7 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="7">
         <f t="shared" si="3"/>
         <v>949.40000000000009</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -2071,7 +2068,7 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="7">
         <f t="shared" si="3"/>
         <v>596.40000000000009</v>
       </c>
@@ -2082,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -2116,7 +2113,7 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="7">
         <f t="shared" si="3"/>
         <v>603.1</v>
       </c>
@@ -2127,7 +2124,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2161,7 +2158,7 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="7">
         <f t="shared" si="3"/>
         <v>609.79999999999995</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2195,7 +2192,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f>IF(G38&lt;=F38,0,G38-F38)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
@@ -2206,23 +2203,23 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="7">
         <f t="shared" si="3"/>
         <v>616.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="6">
         <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>31480</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
-        <v>32</v>
+      <c r="B41" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2230,8 +2227,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>25</v>
+      <c r="B42" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2239,8 +2236,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>30</v>
+      <c r="B43" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>
@@ -2250,5 +2247,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E38" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,16 +535,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
@@ -553,7 +556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="8">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
@@ -1550,7 +1553,7 @@
         <v>13.200000000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f>C24*D24</f>
         <v>785.40000000000009</v>
       </c>
       <c r="F24" s="4">
@@ -2248,7 +2251,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E4:E38" formula="1"/>
+    <ignoredError sqref="E4:E24 E25:E38" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -251,7 +251,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,20 +238,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,12 +539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
@@ -554,16 +560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
+      <c r="A1" s="6">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -595,1631 +601,1631 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <f>A1*1.1</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <f>C3*D3</f>
         <v>924.00000000000011</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="9">
         <v>44805</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <f>E3+J3</f>
         <v>924.00000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <f>D3</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>917.40000000000009</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>917.40000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:D33" si="6">D4</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>910.80000000000007</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <f t="shared" si="3"/>
         <v>910.80000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>904.2</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <f t="shared" si="3"/>
         <v>904.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>897.6</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="10">
         <f t="shared" si="3"/>
         <v>897.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="10">
         <f t="shared" si="3"/>
         <v>891.00000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>884.40000000000009</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <f t="shared" si="3"/>
         <v>884.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>877.80000000000007</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="10">
         <f t="shared" si="3"/>
         <v>877.80000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>871.2</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="10">
         <f t="shared" si="3"/>
         <v>871.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>864.6</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="10">
         <f t="shared" si="3"/>
         <v>874.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>858.00000000000011</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="10">
         <f t="shared" si="3"/>
         <v>878.00000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>851.40000000000009</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="10">
         <f t="shared" si="3"/>
         <v>881.40000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>844.80000000000007</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="10">
         <f t="shared" si="3"/>
         <v>884.80000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>838.2</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="10">
         <f t="shared" si="3"/>
         <v>888.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>831.6</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="10">
         <f t="shared" si="3"/>
         <v>891.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>825.00000000000011</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="10">
         <f t="shared" si="3"/>
         <v>895.00000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>818.40000000000009</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="10">
         <f t="shared" si="3"/>
         <v>898.40000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>811.80000000000007</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="10">
         <f t="shared" si="3"/>
         <v>901.80000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>805.2</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="10">
         <f t="shared" si="3"/>
         <v>905.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>798.6</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="10">
         <f t="shared" si="3"/>
         <v>908.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>792.00000000000011</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="10">
         <f t="shared" si="3"/>
         <v>912.00000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E24" s="6">
         <f>C24*D24</f>
         <v>785.40000000000009</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="10">
         <f t="shared" si="3"/>
         <v>915.40000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>778.80000000000007</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I25" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="10">
         <f t="shared" si="3"/>
         <v>918.80000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>772.2</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="10">
         <f t="shared" si="3"/>
         <v>922.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>765.6</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="10">
         <f t="shared" si="3"/>
         <v>925.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>759.00000000000011</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="10">
         <f t="shared" si="3"/>
         <v>929.00000000000011</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <f>C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>752.40000000000009</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="10">
         <f t="shared" si="3"/>
         <v>932.40000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>745.80000000000007</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="9">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="10">
         <f t="shared" si="3"/>
         <v>935.80000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>739.2</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="10">
         <f t="shared" si="3"/>
         <v>939.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>732.6</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="10">
         <f t="shared" si="3"/>
         <v>942.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="6">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>726.00000000000011</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="10">
         <f t="shared" si="3"/>
         <v>946.00000000000011</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <f>D33</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>719.40000000000009</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="9">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="10">
         <f t="shared" si="3"/>
         <v>949.40000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="7">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>356.40000000000003</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="9">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="10">
         <f t="shared" si="3"/>
         <v>596.40000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>353.1</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="9">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="10">
         <f t="shared" si="3"/>
         <v>603.1</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="9">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="10">
         <f t="shared" si="3"/>
         <v>609.79999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="7">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="9">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="10">
         <f t="shared" si="3"/>
         <v>616.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="6">
-        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+      <c r="C40" s="5">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>31480</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2">
@@ -2227,8 +2233,8 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="2">
@@ -2237,7 +2243,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="2">

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,24 +238,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,14 +535,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
@@ -560,16 +556,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="8">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -601,1631 +597,1631 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <f>A1*1.1</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>924.00000000000011</v>
       </c>
-      <c r="F3" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <f>E3+J3</f>
         <v>924.00000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <f>D3</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>917.40000000000009</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="2">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>917.40000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D33" si="6">D4</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>910.80000000000007</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <f t="shared" si="3"/>
         <v>910.80000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>904.2</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <f t="shared" si="3"/>
         <v>904.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>897.6</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <f t="shared" si="3"/>
         <v>897.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>891.00000000000011</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <f t="shared" si="3"/>
         <v>891.00000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>884.40000000000009</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <f t="shared" si="3"/>
         <v>884.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>877.80000000000007</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <f t="shared" si="3"/>
         <v>877.80000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>871.2</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <f t="shared" si="3"/>
         <v>871.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>864.6</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="I12" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="3"/>
         <v>874.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>858.00000000000011</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="7">
         <f t="shared" si="3"/>
         <v>878.00000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>851.40000000000009</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="7">
         <f t="shared" si="3"/>
         <v>881.40000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>844.80000000000007</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <f t="shared" si="3"/>
         <v>884.80000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>838.2</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="7">
         <f t="shared" si="3"/>
         <v>888.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>831.6</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <f t="shared" si="3"/>
         <v>891.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>825.00000000000011</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <f t="shared" si="3"/>
         <v>895.00000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>818.40000000000009</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="7">
         <f t="shared" si="3"/>
         <v>898.40000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>811.80000000000007</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="7">
         <f t="shared" si="3"/>
         <v>901.80000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>805.2</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="7">
         <f t="shared" si="3"/>
         <v>905.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>798.6</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="7">
         <f t="shared" si="3"/>
         <v>908.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>792.00000000000011</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="7">
         <f t="shared" si="3"/>
         <v>912.00000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E24" s="2">
         <f>C24*D24</f>
         <v>785.40000000000009</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <f t="shared" si="3"/>
         <v>915.40000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>778.80000000000007</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="7">
         <f t="shared" si="3"/>
         <v>918.80000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>772.2</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="7">
         <f t="shared" si="3"/>
         <v>922.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>765.6</v>
       </c>
-      <c r="F27" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="7">
         <f t="shared" si="3"/>
         <v>925.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>759.00000000000011</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I28" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="7">
         <f t="shared" si="3"/>
         <v>929.00000000000011</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <f>C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>752.40000000000009</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="7">
         <f t="shared" si="3"/>
         <v>932.40000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>745.80000000000007</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="I30" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="7">
         <f t="shared" si="3"/>
         <v>935.80000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>739.2</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="7">
         <f t="shared" si="3"/>
         <v>939.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>732.6</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="I32" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="7">
         <f t="shared" si="3"/>
         <v>942.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="6"/>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>726.00000000000011</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="7">
         <f t="shared" si="3"/>
         <v>946.00000000000011</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <f>D33</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>719.40000000000009</v>
       </c>
-      <c r="F34" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="7">
         <f t="shared" si="3"/>
         <v>949.40000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="2">
         <f>D3/2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>356.40000000000003</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="7">
         <f t="shared" si="3"/>
         <v>596.40000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>353.1</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="7">
         <f t="shared" si="3"/>
         <v>603.1</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="2">
         <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="7">
         <f t="shared" si="3"/>
         <v>609.79999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="2">
         <f t="shared" si="10"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>346.5</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="7">
         <f t="shared" si="3"/>
         <v>616.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="5">
-        <f>FLOOR(SUM(K3:K38),1)</f>
+      <c r="C40" s="6">
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>31480</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2">
@@ -2233,8 +2229,8 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="2">
@@ -2243,12 +2239,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="2">
-        <f>MAX(E3:E38)</f>
-        <v>924.00000000000011</v>
+        <f>MAX(K3:K38)</f>
+        <v>949.40000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -70,9 +70,6 @@
     <t>Марков</t>
   </si>
   <si>
-    <t>Маслов</t>
-  </si>
-  <si>
     <t>Махмутов</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Фугина</t>
   </si>
   <si>
-    <t>Чубаров</t>
-  </si>
-  <si>
     <t>Шамилов</t>
   </si>
   <si>
@@ -154,26 +148,120 @@
     <t>Дубков</t>
   </si>
   <si>
-    <t>Еранов</t>
-  </si>
-  <si>
     <t>Занина</t>
   </si>
   <si>
     <t>Коковкина</t>
   </si>
   <si>
-    <t>Колбасова</t>
-  </si>
-  <si>
     <t>Лексин</t>
+  </si>
+  <si>
+    <r>
+      <t>Ера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>́́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>нов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ма</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>́́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>слов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ко</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>лбасова</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чубаро</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +274,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -532,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -594,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -635,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -680,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -725,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -815,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -860,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -905,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -950,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -995,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1040,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1085,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1220,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1265,7 +1360,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1310,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1355,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1400,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1445,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1535,7 +1630,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1580,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1625,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1670,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1715,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1760,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1805,7 +1900,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1850,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1895,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1940,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1985,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2030,7 +2125,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2075,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2120,7 +2215,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2165,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_12.xlsx
+++ b/LR3/table_1_12.xlsx
@@ -157,111 +157,23 @@
     <t>Лексин</t>
   </si>
   <si>
-    <r>
-      <t>Ера</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>́́</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>нов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ма</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>́́</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>слов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ко</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>́</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>лбасова</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чубаро</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>́</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в</t>
-    </r>
+    <t>Еранов</t>
+  </si>
+  <si>
+    <t>Маслов</t>
+  </si>
+  <si>
+    <t>Колбасова</t>
+  </si>
+  <si>
+    <t>Чубаров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +186,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -627,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
